--- a/PolicyEffectiveness/0-DayLag_MichiganPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_MichiganPolicy.xlsx
@@ -1851,7 +1851,7 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2255,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2591,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2647,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2703,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2759,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2815,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3039,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3095,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3263,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3375,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>60</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3431,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3487,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3655,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3823,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>68</v>
       </c>
       <c r="B53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>70</v>
       </c>
       <c r="B55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>71</v>
       </c>
       <c r="B56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>72</v>
       </c>
       <c r="B57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4271,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4327,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4383,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>78</v>
       </c>
       <c r="B63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4439,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>79</v>
       </c>
       <c r="B64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4495,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         <v>80</v>
       </c>
       <c r="B65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4551,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>81</v>
       </c>
       <c r="B66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4607,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4663,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4719,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4775,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4831,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4887,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4943,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4999,13 +4999,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5055,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5111,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>92</v>
       </c>
       <c r="B77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5223,13 +5223,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>93</v>
       </c>
       <c r="B78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5279,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>94</v>
       </c>
       <c r="B79">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5335,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5391,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>96</v>
       </c>
       <c r="B81">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5447,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>97</v>
       </c>
       <c r="B82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5503,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>98</v>
       </c>
       <c r="B83">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>99</v>
       </c>
       <c r="B84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5615,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5671,13 +5671,13 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5727,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5771,7 +5771,7 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5783,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>103</v>
       </c>
       <c r="B88">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>104</v>
       </c>
       <c r="B89">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5895,13 +5895,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5939,7 +5939,7 @@
         <v>105</v>
       </c>
       <c r="B90">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5951,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>106</v>
       </c>
       <c r="B91">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -6007,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>107</v>
       </c>
       <c r="B92">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>108</v>
       </c>
       <c r="B93">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>109</v>
       </c>
       <c r="B94">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>110</v>
       </c>
       <c r="B95">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -6275,7 +6275,7 @@
         <v>111</v>
       </c>
       <c r="B96">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -6331,7 +6331,7 @@
         <v>112</v>
       </c>
       <c r="B97">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -6387,7 +6387,7 @@
         <v>113</v>
       </c>
       <c r="B98">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C98">
         <v>0.8</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -6443,7 +6443,7 @@
         <v>114</v>
       </c>
       <c r="B99">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C99">
         <v>0.8</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -6499,7 +6499,7 @@
         <v>115</v>
       </c>
       <c r="B100">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C100">
         <v>0.8</v>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>116</v>
       </c>
       <c r="B101">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C101">
         <v>0.8</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -8919,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G159">
         <v>1</v>
